--- a/biology/Zoologie/Aequorea_vitrina/Aequorea_vitrina.xlsx
+++ b/biology/Zoologie/Aequorea_vitrina/Aequorea_vitrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aequorea vitrina, communément appelé Équorée de verre ou Équorée cristal, est une espèce de méduses de l'océan Atlantique Nord.
 </t>
@@ -511,11 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ombrelle de 5 à 17 cm de diamètre, de couleur transparente marquée de 60 à 100 canaux radiaires, de couleur blanche ou bleutée[3].
-Espèces proches
-Aequorea forskalea a des canaux radiaires de couleur sombre.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ombrelle de 5 à 17 cm de diamètre, de couleur transparente marquée de 60 à 100 canaux radiaires, de couleur blanche ou bleutée.
+</t>
         </is>
       </c>
     </row>
@@ -540,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eaux de surface (quelques mètres de profondeur) de l'Atlantique Nord, Manche et mer du Nord[4].
-</t>
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aequorea forskalea a des canaux radiaires de couleur sombre.</t>
         </is>
       </c>
     </row>
@@ -571,10 +589,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eaux de surface (quelques mètres de profondeur) de l'Atlantique Nord, Manche et mer du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aequorea_vitrina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aequorea_vitrina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Philip Henry Gosse, A naturalist's rambles on the Devonshire coast, Londres, Inconnu, 1853, 554 p. (OCLC 3646347, LCCN 11019949, DOI 10.5962/BHL.TITLE.42528, lire en ligne)</t>
         </is>
